--- a/medicine/Handicap/Danièle_Langloys/Danièle_Langloys.xlsx
+++ b/medicine/Handicap/Danièle_Langloys/Danièle_Langloys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Langloys</t>
+          <t>Danièle_Langloys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danièle Langloys est une enseignante de lettres classiques et militante associative française, actuelle présidente de l'association Autisme France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Langloys</t>
+          <t>Danièle_Langloys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est agrégée de lettres classiques, et enseigne les lettres classiques jusqu'en 2010. Elle devient secrétaire générale de l'association Autisme France de 2007 à 2010, puis présidente de cette même association depuis 2010.
-Elle est membre du CNCPH, membre titulaire du Conseil de la CNSA, experte auprès de la Haute autorité de santé[1], et de l'ANESM, et formatrice régionale autisme en Rhône-Alpes.
-Elle est intervenue à l'ENS en tant que représentante des usagers[2].
+Elle est membre du CNCPH, membre titulaire du Conseil de la CNSA, experte auprès de la Haute autorité de santé, et de l'ANESM, et formatrice régionale autisme en Rhône-Alpes.
+Elle est intervenue à l'ENS en tant que représentante des usagers.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Langloys</t>
+          <t>Danièle_Langloys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Danièle Langloys, Marcel Hérault, Vincent Gerhards et Delphine Piloquet, « Déclaration du collectif Autisme », L'information psychiatrique, vol. 87,‎ mai 2011, p. 421-422.
 « Recommandations de bonnes pratiques et enjeux de la scolarisation d’un enfant autiste », NRAS,‎ 2012 (lire en ligne).
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Langloys</t>
+          <t>Danièle_Langloys</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,14 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle s'oppose fortement à la psychanalyse dans le domaine de l'autisme en France, et à l'assimilation de l'autisme à un « trouble psychotique »[3].
-Elle est l'auteur d'un « rapport sur les violations des droits et dysfonctionnements de l’aide sociale à l’enfance », publié le 15 juillet 2015[4].
-Elle est l'auteur de 3 rapports à l'ONU sur les violations des droits des enfants autistes, des droits de l'Homme et des droits des femmes. Elle s'est investie dans l'affaire Rachel[5].
-Le 2 octobre 2019, dans Le Monde, elle défend publiquement Greta Thunberg contre les attaques basées sur son autisme[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'oppose fortement à la psychanalyse dans le domaine de l'autisme en France, et à l'assimilation de l'autisme à un « trouble psychotique ».
+Elle est l'auteur d'un « rapport sur les violations des droits et dysfonctionnements de l’aide sociale à l’enfance », publié le 15 juillet 2015.
+Elle est l'auteur de 3 rapports à l'ONU sur les violations des droits des enfants autistes, des droits de l'Homme et des droits des femmes. Elle s'est investie dans l'affaire Rachel.
+Le 2 octobre 2019, dans Le Monde, elle défend publiquement Greta Thunberg contre les attaques basées sur son autisme.
 </t>
         </is>
       </c>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Langloys</t>
+          <t>Danièle_Langloys</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +633,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2009 :  Chevalière de l'ordre des Palmes académiques.
-2013 :  Chevalière de la Légion d'honneur[7].</t>
+2013 :  Chevalière de la Légion d'honneur.</t>
         </is>
       </c>
     </row>
